--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B8E316-C45D-4534-A2E1-9E9B3C8A69DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB274B9-DDAE-4AD1-BE79-FC4351D7D85F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11325" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -102,12 +102,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -115,12 +109,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +133,14 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEF1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -155,141 +161,6 @@
       <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE1A16C"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1A16C"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE1A16C"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -350,44 +221,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,83 +239,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,8 +284,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE1A16C"/>
       <color rgb="FFD9D9D9"/>
-      <color rgb="FFE1A16C"/>
+      <color rgb="FFFEF1E6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -794,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,114 +623,121 @@
       <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+    </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>5</v>
@@ -939,66 +749,73 @@
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="29"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="27"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="27"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+    </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>6</v>
@@ -1010,66 +827,73 @@
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="11"/>
+    </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>7</v>
@@ -1081,58 +905,65 @@
       <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="27"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="27"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="27"/>
-    </row>
-    <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="11"/>
+    </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>8</v>
@@ -1144,74 +975,81 @@
       <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="22"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="24"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="24"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="11"/>
+    </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>9</v>
@@ -1223,42 +1061,49 @@
       <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="24"/>
-    </row>
-    <row r="51" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="11"/>
+    </row>
     <row r="52" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>10</v>
@@ -1270,82 +1115,89 @@
       <c r="F52" s="15"/>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="C53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="22"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-    </row>
-    <row r="61" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="11"/>
+    </row>
     <row r="62" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>11</v>
@@ -1357,50 +1209,57 @@
       <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="C63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="29"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="27"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="27"/>
-    </row>
-    <row r="67" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="11"/>
+    </row>
     <row r="68" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>12</v>
@@ -1412,158 +1271,188 @@
       <c r="F68" s="15"/>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="3" t="s">
+      <c r="C69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="29"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="27"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="27"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="9"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="27"/>
-    </row>
-    <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A73" s="16"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="18"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="15"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="10" t="s">
+      <c r="C76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="24"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="17"/>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="34"/>
-    </row>
-    <row r="79" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
+      <c r="A78" s="16"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="18"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="15"/>
     </row>
     <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="4" t="s">
+      <c r="C81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="22"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="24"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="17"/>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="24"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB274B9-DDAE-4AD1-BE79-FC4351D7D85F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4A1ABD-53CF-4DEA-B9E7-074529AA2556}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,7 +86,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,20 +102,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -225,38 +218,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -270,11 +236,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,7 +597,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,860 +610,860 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="17"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="C16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="17"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="C24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="C32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="C39" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="17"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="C48" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="17"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="17"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="11"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="C53" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="11"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="C63" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="17"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="17"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="17"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="11"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="C69" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="9"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="9"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="13"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="9"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="13"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="9"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="11"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="15"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="C76" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="17"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12"/>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="17"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="11"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="15"/>
-    </row>
-    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="C81" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="17"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="17"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="17"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="11"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="11"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:F38"/>
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4A1ABD-53CF-4DEA-B9E7-074529AA2556}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B81046-CC1F-4AE0-AF03-261ED2F7B59F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -227,6 +227,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,43 +267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -610,122 +606,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -736,74 +732,74 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="19" t="s">
+      <c r="C16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -814,74 +810,74 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="C24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -892,66 +888,66 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="19" t="s">
+      <c r="C32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="13"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
@@ -962,82 +958,82 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="19" t="s">
+      <c r="C39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
@@ -1048,50 +1044,50 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="19" t="s">
+      <c r="C48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
@@ -1102,90 +1098,90 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="19" t="s">
+      <c r="C53" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
@@ -1196,58 +1192,58 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="19" t="s">
+      <c r="C63" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="12"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
@@ -1258,66 +1254,66 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="19" t="s">
+      <c r="C69" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="13"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="8"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="13"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="13"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="13"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
@@ -1328,50 +1324,50 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="6"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
     </row>
     <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="19" t="s">
+      <c r="C76" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="12"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="12"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
@@ -1382,88 +1378,72 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="17"/>
     </row>
     <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="19" t="s">
+      <c r="C81" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="12"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="12"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="12"/>
-    </row>
-    <row r="85" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="7"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:F38"/>
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B81046-CC1F-4AE0-AF03-261ED2F7B59F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC0177EA-E2C7-47ED-8BA1-8FC1A34EF8CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
   <si>
     <t>Cash</t>
   </si>
@@ -77,14 +77,16 @@
   <si>
     <t>Miscellaneous Expense</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -93,13 +95,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -111,6 +106,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -227,47 +230,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +596,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,122 +609,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5">
+        <v>42887</v>
+      </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="12">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5">
+        <v>42887</v>
+      </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
+        <v>50</v>
+      </c>
+      <c r="E4" s="13">
+        <v>9950</v>
+      </c>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5">
+        <v>42891</v>
+      </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="12">
+        <v>200</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13">
+        <v>10150</v>
+      </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5">
+        <v>42894</v>
+      </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12">
+        <v>150</v>
+      </c>
+      <c r="E6" s="13">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5">
+        <v>42899</v>
+      </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
+        <v>600</v>
+      </c>
+      <c r="E7" s="13">
+        <v>9400</v>
+      </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5">
+        <v>42902</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="12">
+        <v>500</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13">
+        <v>9900</v>
+      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5">
+        <v>42906</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="12">
+        <v>250</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13">
+        <v>10150</v>
+      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5">
+        <v>42907</v>
+      </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12">
+        <v>40</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10110</v>
+      </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5">
+        <v>42911</v>
+      </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
+        <v>175</v>
+      </c>
+      <c r="E11" s="13">
+        <v>9935</v>
+      </c>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5">
+        <v>42913</v>
+      </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12">
+        <v>600</v>
+      </c>
+      <c r="E12" s="13">
+        <v>9335</v>
+      </c>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5">
+        <v>42916</v>
+      </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12">
+        <v>700</v>
+      </c>
+      <c r="E13" s="13">
+        <v>8635</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
@@ -732,74 +803,116 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="C16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>42892</v>
+      </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="12">
+        <v>250</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13">
+        <v>250</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5">
+        <v>42895</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="12">
+        <v>450</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13">
+        <v>700</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5">
+        <v>42906</v>
+      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12">
+        <v>250</v>
+      </c>
+      <c r="E19" s="13">
+        <v>450</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5">
+        <v>42910</v>
+      </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="12">
+        <v>750</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5">
+        <v>42915</v>
+      </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
+      <c r="C21" s="12">
+        <v>1600</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13">
+        <v>2800</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -810,74 +923,116 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="14" t="s">
+      <c r="C24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5">
+        <v>42888</v>
+      </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
+      <c r="C25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="12">
+        <v>150</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="12">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5">
+        <v>42894</v>
+      </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
+      <c r="C26" s="12">
+        <v>150</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5">
+        <v>42896</v>
+      </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12">
+        <v>40</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="12">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5">
+        <v>42903</v>
+      </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12">
+        <v>30</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="12">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5">
+        <v>42907</v>
+      </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
+      <c r="C29" s="12">
+        <v>40</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="12">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -888,66 +1043,76 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="C32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5">
+        <v>42887</v>
+      </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
+      <c r="C33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="12">
+        <v>10000</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="12">
+        <v>10000</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="8"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
@@ -958,82 +1123,130 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="C39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5">
+        <v>42916</v>
+      </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
+      <c r="C40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="12">
+        <v>3750</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="5">
+        <v>42916</v>
+      </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
+      <c r="C41" s="13">
+        <v>1200</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="12">
+        <v>2550</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5">
+        <v>42916</v>
+      </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
+      <c r="C42" s="13">
+        <v>220</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="12">
+        <v>2330</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="5">
+        <v>42916</v>
+      </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
+      <c r="C43" s="13">
+        <v>175</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="12">
+        <v>2155</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5">
+        <v>42916</v>
+      </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
+      <c r="C44" s="13">
+        <v>50</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="12">
+        <v>2105</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5">
+        <v>42916</v>
+      </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
+      <c r="C45" s="13">
+        <v>700</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="12">
+        <v>1405</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
@@ -1044,50 +1257,68 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="14" t="s">
+      <c r="C48" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="5">
+        <v>42916</v>
+      </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
+      <c r="C49" s="13">
+        <v>700</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="13">
+        <v>700</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5">
+        <v>42916</v>
+      </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12">
+        <v>700</v>
+      </c>
+      <c r="E50" s="13">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
@@ -1098,90 +1329,146 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
     </row>
     <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="14" t="s">
+      <c r="C53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5">
+        <v>42891</v>
+      </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13">
+        <v>200</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="12">
+        <v>200</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5">
+        <v>42892</v>
+      </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13">
+        <v>250</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="12">
+        <v>450</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="5">
+        <v>42895</v>
+      </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13">
+        <v>450</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="12">
+        <v>900</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="5">
+        <v>42902</v>
+      </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13">
+        <v>500</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="12">
+        <v>1400</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="5">
+        <v>42910</v>
+      </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13">
+        <v>750</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="12">
+        <v>2150</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="5">
+        <v>42915</v>
+      </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="13">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="12">
+        <v>3750</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="5">
+        <v>42916</v>
+      </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="C60" s="12">
+        <v>3750</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
@@ -1192,58 +1479,84 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="14" t="s">
+      <c r="C63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5">
+        <v>42899</v>
+      </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="7"/>
+      <c r="C64" s="12">
+        <v>600</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="13">
+        <v>600</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5">
+        <v>42913</v>
+      </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="7"/>
+      <c r="C65" s="12">
+        <v>600</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13">
+        <v>1200</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5">
+        <v>42916</v>
+      </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="67" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
@@ -1254,66 +1567,92 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="17"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="14" t="s">
+      <c r="C69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="5">
+        <v>42888</v>
+      </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="8"/>
+      <c r="C70" s="13">
+        <v>150</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="13">
+        <v>150</v>
+      </c>
+      <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="5">
+        <v>42896</v>
+      </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="8"/>
+      <c r="C71" s="13">
+        <v>40</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13">
+        <v>190</v>
+      </c>
+      <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="5">
+        <v>42903</v>
+      </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="8"/>
+      <c r="C72" s="13">
+        <v>30</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13">
+        <v>220</v>
+      </c>
+      <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="5">
+        <v>42916</v>
+      </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="8"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="12">
+        <v>220</v>
+      </c>
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
+      <c r="F73" s="17"/>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
@@ -1324,50 +1663,66 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="17"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="14" t="s">
+      <c r="C76" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="5">
+        <v>42911</v>
+      </c>
       <c r="B77" s="4"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="7"/>
+      <c r="C77" s="13">
+        <v>175</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="13">
+        <v>175</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5">
+        <v>42916</v>
+      </c>
       <c r="B78" s="4"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="7"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="12">
+        <v>175</v>
+      </c>
+      <c r="E78" s="13">
+        <v>0</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
@@ -1378,72 +1733,98 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="17"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
     </row>
     <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="14" t="s">
+      <c r="C81" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
+      <c r="A82" s="5">
+        <v>42887</v>
+      </c>
       <c r="B82" s="4"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="7"/>
+      <c r="C82" s="13">
+        <v>50</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="13">
+        <v>50</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
+      <c r="A83" s="5">
+        <v>42916</v>
+      </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="7"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="12">
+        <v>50</v>
+      </c>
+      <c r="E83" s="13">
+        <v>0</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
+      <c r="A84" s="5">
+        <v>42938</v>
+      </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="7"/>
+      <c r="C84" s="13">
+        <v>20</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="13">
+        <v>20</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A38:F38"/>
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC0177EA-E2C7-47ED-8BA1-8FC1A34EF8CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A48E1B-4B18-4CCD-9D17-09DEC45E3791}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
   <si>
     <t>Cash</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Miscellaneous Expense</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -596,7 +593,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,159 +636,91 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>42887</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="12">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="13">
-        <v>10000</v>
-      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>42887</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="12">
-        <v>50</v>
-      </c>
-      <c r="E4" s="13">
-        <v>9950</v>
-      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>42891</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="12">
-        <v>200</v>
-      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="13">
-        <v>10150</v>
-      </c>
+      <c r="E5" s="13"/>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>42894</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12">
-        <v>150</v>
-      </c>
-      <c r="E6" s="13">
-        <v>10000</v>
-      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>42899</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="12">
-        <v>600</v>
-      </c>
-      <c r="E7" s="13">
-        <v>9400</v>
-      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>42902</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="12">
-        <v>500</v>
-      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="13">
-        <v>9900</v>
-      </c>
+      <c r="E8" s="13"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>42906</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="12">
-        <v>250</v>
-      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="13">
-        <v>10150</v>
-      </c>
+      <c r="E9" s="13"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>42907</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="12">
-        <v>40</v>
-      </c>
-      <c r="E10" s="13">
-        <v>10110</v>
-      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>42911</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="12">
-        <v>175</v>
-      </c>
-      <c r="E11" s="13">
-        <v>9935</v>
-      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>42913</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="12">
-        <v>600</v>
-      </c>
-      <c r="E12" s="13">
-        <v>9335</v>
-      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="12">
-        <v>700</v>
-      </c>
-      <c r="E13" s="13">
-        <v>8635</v>
-      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -833,86 +762,44 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>42892</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="12">
-        <v>250</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="13">
-        <v>250</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>42895</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="12">
-        <v>450</v>
-      </c>
+      <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="13">
-        <v>700</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>42906</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="12">
-        <v>250</v>
-      </c>
-      <c r="E19" s="13">
-        <v>450</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>42910</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="12">
-        <v>750</v>
-      </c>
+      <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="13">
-        <v>1200</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>42915</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="12">
-        <v>1600</v>
-      </c>
+      <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="13">
-        <v>2800</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
@@ -953,86 +840,44 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>42888</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="12">
-        <v>150</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="12">
-        <v>150</v>
-      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>42894</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="12">
-        <v>150</v>
-      </c>
+      <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>42896</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="12">
-        <v>40</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="12">
-        <v>40</v>
-      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>42903</v>
-      </c>
+      <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="12">
-        <v>30</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="12">
-        <v>70</v>
-      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>42907</v>
-      </c>
+      <c r="A29" s="5"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="12">
-        <v>40</v>
-      </c>
+      <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="12">
-        <v>30</v>
-      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -1073,22 +918,12 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>42887</v>
-      </c>
+      <c r="A33" s="5"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="12">
-        <v>10000</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="12">
-        <v>10000</v>
-      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
@@ -1153,100 +988,52 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A40" s="5"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="C40" s="13"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="12">
-        <v>3750</v>
-      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A41" s="5"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="13">
-        <v>1200</v>
-      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="12">
-        <v>2550</v>
-      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A42" s="5"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="13">
-        <v>220</v>
-      </c>
+      <c r="C42" s="13"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="12">
-        <v>2330</v>
-      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A43" s="5"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="13">
-        <v>175</v>
-      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="12">
-        <v>2155</v>
-      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A44" s="5"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="13">
-        <v>50</v>
-      </c>
+      <c r="C44" s="13"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="12">
-        <v>2105</v>
-      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A45" s="5"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="13">
-        <v>700</v>
-      </c>
+      <c r="C45" s="13"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="12">
-        <v>1405</v>
-      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
@@ -1287,38 +1074,20 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A49" s="5"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="13">
-        <v>700</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="13">
-        <v>700</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="12">
-        <v>700</v>
-      </c>
-      <c r="E50" s="13">
-        <v>0</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
@@ -1359,116 +1128,60 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>42891</v>
-      </c>
+      <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="12"/>
-      <c r="D54" s="13">
-        <v>200</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="12">
-        <v>200</v>
-      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>42892</v>
-      </c>
+      <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="12"/>
-      <c r="D55" s="13">
-        <v>250</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="12">
-        <v>450</v>
-      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>42895</v>
-      </c>
+      <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="12"/>
-      <c r="D56" s="13">
-        <v>450</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="12">
-        <v>900</v>
-      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>42902</v>
-      </c>
+      <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="12"/>
-      <c r="D57" s="13">
-        <v>500</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="12">
-        <v>1400</v>
-      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>42910</v>
-      </c>
+      <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="12"/>
-      <c r="D58" s="13">
-        <v>750</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="12">
-        <v>2150</v>
-      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>42915</v>
-      </c>
+      <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="13">
-        <v>1600</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="12">
-        <v>3750</v>
-      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A60" s="5"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="12">
-        <v>3750</v>
-      </c>
+      <c r="C60" s="12"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="12">
-        <v>0</v>
-      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
@@ -1509,54 +1222,28 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>42899</v>
-      </c>
+      <c r="A64" s="5"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="12">
-        <v>600</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" s="13">
-        <v>600</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>42913</v>
-      </c>
+      <c r="A65" s="5"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="12">
-        <v>600</v>
-      </c>
+      <c r="C65" s="12"/>
       <c r="D65" s="12"/>
-      <c r="E65" s="13">
-        <v>1200</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="12"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="12">
-        <v>1200</v>
-      </c>
-      <c r="E66" s="13">
-        <v>0</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
@@ -1597,61 +1284,35 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>42888</v>
-      </c>
+      <c r="A70" s="5"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="13">
-        <v>150</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="13">
-        <v>150</v>
-      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="13"/>
       <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>42896</v>
-      </c>
+      <c r="A71" s="5"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="13">
-        <v>40</v>
-      </c>
+      <c r="C71" s="13"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="13">
-        <v>190</v>
-      </c>
+      <c r="E71" s="13"/>
       <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>42903</v>
-      </c>
+      <c r="A72" s="5"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="13">
-        <v>30</v>
-      </c>
+      <c r="C72" s="13"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="13">
-        <v>220</v>
-      </c>
+      <c r="E72" s="13"/>
       <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="13"/>
-      <c r="D73" s="12">
-        <v>220</v>
-      </c>
-      <c r="E73" s="13">
-        <v>0</v>
-      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="17"/>
     </row>
     <row r="74" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1693,36 +1354,20 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>42911</v>
-      </c>
+      <c r="A77" s="5"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="13">
-        <v>175</v>
-      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="12"/>
-      <c r="E77" s="13">
-        <v>175</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="12"/>
     </row>
     <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A78" s="5"/>
       <c r="B78" s="4"/>
       <c r="C78" s="13"/>
-      <c r="D78" s="12">
-        <v>175</v>
-      </c>
-      <c r="E78" s="13">
-        <v>0</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
@@ -1763,54 +1408,28 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>42887</v>
-      </c>
+      <c r="A82" s="5"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="13">
-        <v>50</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E82" s="13">
-        <v>50</v>
-      </c>
-      <c r="F82" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="12"/>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>42916</v>
-      </c>
+      <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="13"/>
-      <c r="D83" s="12">
-        <v>50</v>
-      </c>
-      <c r="E83" s="13">
-        <v>0</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>42938</v>
-      </c>
+      <c r="A84" s="5"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="13">
-        <v>20</v>
-      </c>
+      <c r="C84" s="13"/>
       <c r="D84" s="12"/>
-      <c r="E84" s="13">
-        <v>20</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>15</v>
-      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC30D8E-CCF6-41F2-AD99-B067BA20CAE2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C629778-F2C7-48C2-A2CC-B52F138B22B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="34">
   <si>
     <t>Cash</t>
   </si>
@@ -79,15 +79,66 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>6/1</t>
+  </si>
+  <si>
+    <t>6/5</t>
+  </si>
+  <si>
+    <t>6/8</t>
+  </si>
+  <si>
+    <t>6/13</t>
+  </si>
+  <si>
+    <t>6/16</t>
+  </si>
+  <si>
+    <t>6/20</t>
+  </si>
+  <si>
+    <t>6/21</t>
+  </si>
+  <si>
+    <t>6/25</t>
+  </si>
+  <si>
+    <t>6/27</t>
+  </si>
+  <si>
+    <t>6/30</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>6/24</t>
+  </si>
+  <si>
+    <t>6/29</t>
+  </si>
+  <si>
+    <t>6/2</t>
+  </si>
+  <si>
+    <t>6/10</t>
+  </si>
+  <si>
+    <t>6/17</t>
+  </si>
+  <si>
+    <t>7/22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,12 +254,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -234,6 +279,12 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,7 +611,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,186 +624,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>42887</v>
+      <c r="A3" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>10000</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8">
         <v>10000</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>42887</v>
+      <c r="A4" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
         <v>50</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>9950</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>42891</v>
+      <c r="A5" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>200</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8">
         <v>10150</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>42894</v>
+      <c r="A6" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
         <v>150</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>10000</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>42899</v>
+      <c r="A7" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
         <v>600</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>9400</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>42902</v>
+      <c r="A8" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>500</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8">
         <v>9900</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>42906</v>
+      <c r="A9" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>250</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+      <c r="D9" s="7"/>
+      <c r="E9" s="8">
         <v>10150</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>42907</v>
+      <c r="A10" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7">
         <v>40</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>10110</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>42911</v>
+      <c r="A11" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
         <v>175</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>9935</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>42913</v>
+      <c r="A12" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <v>600</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>9335</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>42916</v>
+      <c r="A13" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -763,126 +814,126 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>42892</v>
+      <c r="A17" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>250</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8">
         <v>250</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>42895</v>
+      <c r="A18" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>450</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8">
         <v>700</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>42906</v>
+      <c r="A19" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
         <v>250</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>450</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>42910</v>
+      <c r="A20" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>750</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8">
         <v>1200</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>42915</v>
+      <c r="A21" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>1600</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8">
         <v>2800</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>42916</v>
+      <c r="A22" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -893,126 +944,126 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="C25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>42888</v>
+      <c r="A26" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="C26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="7">
         <v>150</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="7">
         <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>42894</v>
+      <c r="A27" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>150</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="9">
+      <c r="D27" s="7"/>
+      <c r="E27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>42896</v>
+      <c r="A28" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7">
         <v>40</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>42903</v>
+      <c r="A29" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7">
         <v>30</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="E29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="7">
         <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>42907</v>
+      <c r="A30" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>40</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="D30" s="7"/>
+      <c r="E30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>42916</v>
+      <c r="A31" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -1023,78 +1074,78 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="C34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>42887</v>
+      <c r="A35" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="9">
+      <c r="C35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="7">
         <v>10000</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="E35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="7">
         <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>42916</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -1105,124 +1156,124 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="C41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>42916</v>
+      <c r="A42" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="9">
+      <c r="C42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="7">
         <v>3750</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>42916</v>
+      <c r="A43" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="10">
+      <c r="C43" s="8">
         <v>1200</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="9">
+      <c r="D43" s="7"/>
+      <c r="E43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="7">
         <v>2550</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>42916</v>
+      <c r="A44" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>220</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="9">
+      <c r="D44" s="7"/>
+      <c r="E44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="7">
         <v>2330</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>42916</v>
+      <c r="A45" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <v>175</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="9">
+      <c r="D45" s="7"/>
+      <c r="E45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="7">
         <v>2155</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>42916</v>
+      <c r="A46" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <v>50</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="9">
+      <c r="D46" s="7"/>
+      <c r="E46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="7">
         <v>2105</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>42916</v>
+      <c r="A47" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
@@ -1233,62 +1284,62 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="C50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>42916</v>
+      <c r="A51" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>700</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="10">
+      <c r="D51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="8">
         <v>700</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>42916</v>
+      <c r="A52" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -1299,140 +1350,140 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="8" t="s">
+      <c r="C55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>42891</v>
+      <c r="A56" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10">
+      <c r="C56" s="7"/>
+      <c r="D56" s="8">
         <v>200</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="9">
+      <c r="E56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="7">
         <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>42892</v>
+      <c r="A57" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10">
+      <c r="C57" s="7"/>
+      <c r="D57" s="8">
         <v>250</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="9">
+      <c r="E57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="7">
         <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>42895</v>
+      <c r="A58" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8">
         <v>450</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="9">
+      <c r="E58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="7">
         <v>900</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>42902</v>
+      <c r="A59" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10">
+      <c r="C59" s="7"/>
+      <c r="D59" s="8">
         <v>500</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="9">
+      <c r="E59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="7">
         <v>1400</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>42910</v>
+      <c r="A60" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10">
+      <c r="C60" s="7"/>
+      <c r="D60" s="8">
         <v>750</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="9">
+      <c r="E60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="7">
         <v>2150</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>42915</v>
+      <c r="A61" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10">
+      <c r="C61" s="7"/>
+      <c r="D61" s="8">
         <v>1600</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="9">
+      <c r="E61" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="7">
         <v>3750</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>42916</v>
+      <c r="A62" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
@@ -1443,78 +1494,78 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
     </row>
     <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="C65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>42899</v>
+      <c r="A66" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="9">
+      <c r="C66" s="7">
         <v>600</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="10">
+      <c r="D66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="8">
         <v>600</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>42913</v>
+      <c r="A67" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="9">
+      <c r="C67" s="7">
         <v>600</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10">
+      <c r="D67" s="7"/>
+      <c r="E67" s="8">
         <v>1200</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>42916</v>
+      <c r="A68" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="9" t="s">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1527,88 +1578,88 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
     </row>
     <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="8" t="s">
+      <c r="C71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>42888</v>
+      <c r="A72" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="10">
+      <c r="C72" s="8">
         <v>150</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="10">
+      <c r="D72" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="8">
         <v>150</v>
       </c>
-      <c r="F72" s="14"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>42896</v>
+      <c r="A73" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="10">
+      <c r="C73" s="8">
         <v>40</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10">
+      <c r="D73" s="7"/>
+      <c r="E73" s="8">
         <v>190</v>
       </c>
-      <c r="F73" s="14"/>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>42903</v>
+      <c r="A74" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="10">
+      <c r="C74" s="8">
         <v>30</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="10">
+      <c r="D74" s="7"/>
+      <c r="E74" s="8">
         <v>220</v>
       </c>
-      <c r="F74" s="14"/>
+      <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>42916</v>
+      <c r="A75" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="14"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
@@ -1619,60 +1670,60 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="8" t="s">
+      <c r="C78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>42911</v>
+      <c r="A79" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B79" s="4"/>
-      <c r="C79" s="10">
+      <c r="C79" s="8">
         <v>175</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="10">
+      <c r="D79" s="7"/>
+      <c r="E79" s="8">
         <v>175</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>42916</v>
+      <c r="A80" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B80" s="4"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
@@ -1683,84 +1734,86 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="8" t="s">
+      <c r="C83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>42887</v>
+      <c r="A84" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="10">
+      <c r="C84" s="8">
         <v>50</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="10">
+      <c r="D84" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="8">
         <v>50</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>42916</v>
+      <c r="A85" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="9"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="B86" s="4"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="9"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C629778-F2C7-48C2-A2CC-B52F138B22B6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C626F303-E847-4394-945E-8849C64D0960}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
   <si>
     <t>Cash</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>6/17</t>
-  </si>
-  <si>
-    <t>7/22</t>
   </si>
 </sst>
 </file>
@@ -278,13 +275,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -624,14 +621,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -654,7 +651,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4"/>
@@ -670,7 +667,7 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4"/>
@@ -684,7 +681,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4"/>
@@ -698,7 +695,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4"/>
@@ -712,7 +709,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4"/>
@@ -726,7 +723,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="4"/>
@@ -740,7 +737,7 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="4"/>
@@ -754,7 +751,7 @@
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="4"/>
@@ -768,7 +765,7 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="4"/>
@@ -782,7 +779,7 @@
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="4"/>
@@ -796,7 +793,7 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="4"/>
@@ -814,14 +811,14 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -844,7 +841,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="4"/>
@@ -862,7 +859,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="4"/>
@@ -878,7 +875,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="4"/>
@@ -894,7 +891,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="4"/>
@@ -910,7 +907,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="4"/>
@@ -926,7 +923,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
@@ -944,14 +941,14 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -974,7 +971,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="4"/>
@@ -992,7 +989,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="4"/>
@@ -1008,7 +1005,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4"/>
@@ -1024,7 +1021,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4"/>
@@ -1040,7 +1037,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="4"/>
@@ -1056,7 +1053,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="4"/>
@@ -1074,14 +1071,14 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -1104,7 +1101,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4"/>
@@ -1122,7 +1119,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="5"/>
@@ -1132,7 +1129,7 @@
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="5"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -1140,7 +1137,7 @@
       <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="5"/>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -1156,14 +1153,14 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -1186,87 +1183,57 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="C42" s="8"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="7">
-        <v>3750</v>
-      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="8">
-        <v>1200</v>
-      </c>
+      <c r="C43" s="8"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="7">
-        <v>2550</v>
-      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="8">
-        <v>220</v>
-      </c>
+      <c r="C44" s="8"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2330</v>
-      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="8">
-        <v>175</v>
-      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="7">
-        <v>2155</v>
-      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="8">
-        <v>50</v>
-      </c>
+      <c r="C46" s="8"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="7">
-        <v>2105</v>
-      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="4"/>
@@ -1284,14 +1251,14 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
     </row>
     <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -1314,25 +1281,17 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="8">
-        <v>700</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="8">
-        <v>700</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="4"/>
@@ -1350,14 +1309,14 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
     </row>
     <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
@@ -1380,7 +1339,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B56" s="4"/>
@@ -1396,7 +1355,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="4"/>
@@ -1412,7 +1371,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="4"/>
@@ -1428,7 +1387,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B59" s="4"/>
@@ -1444,7 +1403,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="4"/>
@@ -1460,7 +1419,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="4"/>
@@ -1476,7 +1435,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B62" s="4"/>
@@ -1494,14 +1453,14 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
     </row>
     <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -1524,7 +1483,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B66" s="4"/>
@@ -1542,7 +1501,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B67" s="4"/>
@@ -1558,7 +1517,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B68" s="4"/>
@@ -1578,14 +1537,14 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
     </row>
     <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
@@ -1608,7 +1567,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B72" s="4"/>
@@ -1624,7 +1583,7 @@
       <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B73" s="4"/>
@@ -1638,7 +1597,7 @@
       <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B74" s="4"/>
@@ -1652,7 +1611,7 @@
       <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B75" s="4"/>
@@ -1670,14 +1629,14 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
     </row>
     <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
@@ -1700,7 +1659,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B79" s="4"/>
@@ -1716,7 +1675,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="4"/>
@@ -1734,14 +1693,14 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
     </row>
     <row r="83" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
@@ -1764,7 +1723,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B84" s="4"/>
@@ -1782,7 +1741,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B85" s="4"/>
@@ -1791,29 +1750,19 @@
       <c r="E85" s="8"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A40:F40"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C626F303-E847-4394-945E-8849C64D0960}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7CFD1D-23DD-6D44-9AB3-25D8FBE7ECED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
+    <workbookView xWindow="3540" yWindow="460" windowWidth="24460" windowHeight="15440" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
   <si>
     <t>Cash</t>
   </si>
@@ -605,22 +604,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -630,7 +629,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -650,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -666,7 +665,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
@@ -680,7 +679,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -694,7 +693,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -708,7 +707,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -722,7 +721,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
@@ -736,7 +735,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -750,7 +749,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
@@ -764,7 +763,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -778,7 +777,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
@@ -792,17 +791,22 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="D13" s="7">
+        <v>700</v>
+      </c>
+      <c r="E13" s="8">
+        <f>E12-D13</f>
+        <v>8635</v>
+      </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -810,7 +814,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
@@ -820,7 +824,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
@@ -840,7 +844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -858,7 +862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
@@ -874,7 +878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
@@ -890,7 +894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
@@ -906,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
@@ -922,17 +926,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="8"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -940,7 +942,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
@@ -950,7 +952,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
@@ -970,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>30</v>
       </c>
@@ -988,7 +990,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>18</v>
       </c>
@@ -1004,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
@@ -1020,7 +1022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>22</v>
       </c>
@@ -1052,17 +1054,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1070,7 +1070,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>16</v>
       </c>
@@ -1118,651 +1118,613 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
       <c r="B36" s="5"/>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+    <row r="37" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="C39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
       <c r="B42" s="4"/>
       <c r="C42" s="8"/>
       <c r="D42" s="7"/>
       <c r="E42" s="8"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
       <c r="B43" s="4"/>
       <c r="C43" s="8"/>
       <c r="D43" s="7"/>
       <c r="E43" s="8"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
       <c r="B44" s="4"/>
       <c r="C44" s="8"/>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
       <c r="F44" s="7"/>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
       <c r="B45" s="4"/>
       <c r="C45" s="8"/>
       <c r="D45" s="7"/>
       <c r="E45" s="8"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-    </row>
-    <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="B49" s="4"/>
+      <c r="C49" s="8">
+        <v>700</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8">
+        <v>700</v>
+      </c>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-    </row>
-    <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8">
+        <v>200</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8">
+        <v>250</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
       <c r="D56" s="8">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
       <c r="D57" s="8">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F57" s="7">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
       <c r="D58" s="8">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="7">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
       <c r="D59" s="8">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F59" s="7">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>28</v>
-      </c>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="8">
-        <v>750</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="7">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8">
-        <v>1600</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="7">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="D60" s="8"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-    </row>
-    <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+      <c r="C63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
         <v>19</v>
       </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="7">
+        <v>600</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="8">
+        <v>600</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="7">
+        <v>600</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8">
+        <v>1200</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="13"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="7">
-        <v>600</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" s="8">
-        <v>600</v>
-      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="7">
-        <v>600</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8">
-        <v>1200</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+    <row r="67" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+    </row>
+    <row r="69" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="8">
+        <v>150</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="8">
+        <v>150</v>
+      </c>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="8">
+        <v>40</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8">
+        <v>190</v>
+      </c>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="8">
-        <v>150</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D72" s="7"/>
       <c r="E72" s="8">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>31</v>
-      </c>
+    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="13"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="8">
-        <v>40</v>
-      </c>
+      <c r="C73" s="8"/>
       <c r="D73" s="7"/>
-      <c r="E73" s="8">
-        <v>190</v>
-      </c>
+      <c r="E73" s="8"/>
       <c r="F73" s="12"/>
     </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="8">
-        <v>30</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="8">
-        <v>220</v>
-      </c>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
+    <row r="74" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-    </row>
-    <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+    </row>
+    <row r="76" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="C76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="8">
+      <c r="B77" s="4"/>
+      <c r="C77" s="8">
         <v>175</v>
       </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="8">
+      <c r="D77" s="7"/>
+      <c r="E77" s="8">
         <v>175</v>
       </c>
-      <c r="F79" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+      <c r="F77" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="13"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-    </row>
-    <row r="83" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+    </row>
+    <row r="81" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="C81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="8">
+      <c r="B82" s="4"/>
+      <c r="C82" s="8">
         <v>50</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="8">
+      <c r="D82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="8">
         <v>50</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="7"/>
+      <c r="F82" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="13"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A77:F77"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A75:F75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.6_B_Student_Q_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7CFD1D-23DD-6D44-9AB3-25D8FBE7ECED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C6328A-59AF-463B-B74F-D53BCC7C37AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="460" windowWidth="24460" windowHeight="15440" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
+    <workbookView xWindow="3540" yWindow="465" windowWidth="24465" windowHeight="15435" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -238,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -282,6 +283,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,20 +627,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -629,7 +650,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -649,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -665,7 +686,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
@@ -679,7 +700,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -693,7 +714,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>18</v>
       </c>
@@ -707,7 +728,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
@@ -721,7 +742,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
@@ -735,7 +756,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
@@ -749,7 +770,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>22</v>
       </c>
@@ -763,7 +784,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
@@ -777,7 +798,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>24</v>
       </c>
@@ -791,7 +812,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
@@ -806,7 +827,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -814,7 +835,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>5</v>
       </c>
@@ -824,7 +845,7 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>1</v>
       </c>
@@ -844,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
@@ -862,7 +883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
@@ -878,7 +899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>21</v>
       </c>
@@ -894,7 +915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
@@ -910,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
@@ -926,7 +947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -934,7 +955,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -942,7 +963,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
@@ -952,7 +973,7 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>1</v>
       </c>
@@ -972,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>30</v>
       </c>
@@ -990,7 +1011,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>18</v>
       </c>
@@ -1006,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
@@ -1022,7 +1043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
@@ -1038,7 +1059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>22</v>
       </c>
@@ -1054,7 +1075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -1062,7 +1083,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1070,7 +1091,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1101,7 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>1</v>
       </c>
@@ -1100,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>16</v>
       </c>
@@ -1118,7 +1139,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="5"/>
       <c r="C36" s="9"/>
@@ -1126,7 +1147,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1134,7 +1155,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1165,7 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>1</v>
       </c>
@@ -1164,55 +1185,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1220,7 +1241,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>9</v>
       </c>
@@ -1230,7 +1251,7 @@
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>1</v>
       </c>
@@ -1250,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>25</v>
       </c>
@@ -1264,15 +1285,15 @@
       </c>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1280,7 +1301,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>10</v>
       </c>
@@ -1290,7 +1311,7 @@
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>17</v>
       </c>
@@ -1326,7 +1347,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>26</v>
       </c>
@@ -1342,7 +1363,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>27</v>
       </c>
@@ -1358,7 +1379,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>20</v>
       </c>
@@ -1374,7 +1395,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>28</v>
       </c>
@@ -1390,7 +1411,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>29</v>
       </c>
@@ -1406,15 +1427,15 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+    </row>
+    <row r="61" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1422,7 +1443,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>11</v>
       </c>
@@ -1432,7 +1453,7 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>19</v>
       </c>
@@ -1470,7 +1491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>24</v>
       </c>
@@ -1486,17 +1507,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1504,7 +1525,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +1535,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
     </row>
-    <row r="69" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>1</v>
       </c>
@@ -1534,7 +1555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>30</v>
       </c>
@@ -1550,7 +1571,7 @@
       </c>
       <c r="F70" s="12"/>
     </row>
-    <row r="71" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>31</v>
       </c>
@@ -1564,7 +1585,7 @@
       </c>
       <c r="F71" s="12"/>
     </row>
-    <row r="72" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>32</v>
       </c>
@@ -1578,15 +1599,15 @@
       </c>
       <c r="F72" s="12"/>
     </row>
-    <row r="73" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="20"/>
+    </row>
+    <row r="74" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1594,7 +1615,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>13</v>
       </c>
@@ -1604,7 +1625,7 @@
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
     </row>
-    <row r="76" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>23</v>
       </c>
@@ -1640,15 +1661,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="19"/>
+    </row>
+    <row r="79" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1656,7 +1677,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>14</v>
       </c>
@@ -1666,7 +1687,7 @@
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>1</v>
       </c>
@@ -1686,7 +1707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>16</v>
       </c>
@@ -1704,27 +1725,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="7"/>
+    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="19"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A38:F38"/>
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
